--- a/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5884,7 +5885,6 @@
           <t>广发鑫源灵活配置混合C</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>70.32</t>
@@ -5916,7 +5916,6 @@
           <t>华夏新锦绣灵活配置混合C</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>71.87</t>
@@ -5932,6 +5931,6056 @@
       </c>
       <c r="H93" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H159"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5482</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9926</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6548</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5865</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>168.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5309</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2895</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1336</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9637</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9053</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8999</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8264</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7923</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7846</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7743</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7495</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7096</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7031</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6926</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6477</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6460</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6076</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5927</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5880</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5404</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5322</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5143</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5069</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4946</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4762</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4746</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4666</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4351</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4175</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3960</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3918</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3849</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3661</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中小企业板ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3565</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2783</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>66.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>61.46</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>易方达中小板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>广发中小板300ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>95.69</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006698</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001059</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中金绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>370023</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>上投摩根中证消费服务指数</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>006699</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>66.46</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11986,4 +11987,4464 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8562</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5607</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2377</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1821</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0778</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9880</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9450</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8895</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7999</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7689</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7427</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7393</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6346</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6297</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6232</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5981</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5948</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4265</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3742</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3389</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3298</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>67.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159720</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰康中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>73.19</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159710</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>建信中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159897</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>建信中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>67.76</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16447,4 +16448,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>116</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>158</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>92</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16456,7 +16457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16467,17 +16468,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16487,14 +16508,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>116</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.14</v>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8622</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -16503,14 +16546,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>158</v>
-      </c>
-      <c r="D3" t="n">
-        <v>54.77</v>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -16519,14 +16584,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>92</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.13</v>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -16535,13 +16622,3719 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6817</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5354</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3928</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3170</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1145</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0545</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8139</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7478</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7365</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7320</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7273</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6496</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6099</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4668</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3947</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3828</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>47.27</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>47.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159897</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>建信中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>98</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>116</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>158</v>
+      </c>
+      <c r="D4" t="n">
+        <v>54.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>92</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>50</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>13.92</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20233,7 +20234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20244,17 +20245,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20264,14 +20285,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>98</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.77</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -20280,14 +20323,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>116</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.14</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8805</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -20296,14 +20361,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>158</v>
-      </c>
-      <c r="D4" t="n">
-        <v>54.77</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -20312,14 +20399,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>92</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.13</v>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6073</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -20328,13 +20437,4233 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4908</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4345</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2184</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2029</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9871</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9698</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8160</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7077</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014585</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6795</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6578</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6472</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6287</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6112</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4658</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4505</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3848</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3503</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2693</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014586</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159897</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>建信中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>112</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>98</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>116</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>158</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>92</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>50</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>13.92</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24546,7 +24547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24557,17 +24558,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -24577,14 +24598,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>112</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.39</v>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -24593,14 +24636,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>98</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.77</v>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -24609,14 +24674,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>116</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.14</v>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -24625,14 +24712,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>158</v>
-      </c>
-      <c r="D5" t="n">
-        <v>54.77</v>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2174</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -24641,14 +24750,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>92</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30.13</v>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -24657,13 +24788,3565 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0435</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9465</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7837</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7753</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7689</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7160</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014528</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富MSCI中国A50互联互通ETF联接A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6340</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6169</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5824</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5652</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5132</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4793</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4127</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4107</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014919</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014920</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012040</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014173</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>112</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>98</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>116</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>158</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>92</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>50</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>13.92</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>24.78</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>40.39</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D4" t="n">
-        <v>29.77</v>
+        <v>40.39</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n">
-        <v>34.14</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="D6" t="n">
-        <v>54.77</v>
+        <v>34.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="D7" t="n">
-        <v>30.13</v>
+        <v>54.77</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>92</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>50</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>13.92</v>
       </c>
     </row>
@@ -600,6 +617,3214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0713</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9658</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9489</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9434</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5843</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5493</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5394</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4912</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4789</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4311</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2408</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013599</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159896</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深AI50ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159701</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012040</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015676</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014173</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013598</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4265,7 +7490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8577,7 +11802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12353,7 +15578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16813,7 +20038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22863,7 +26088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26401,7 +29626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002230-科大讯飞.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>14.13</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D3" t="n">
-        <v>24.78</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n">
-        <v>40.39</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D5" t="n">
-        <v>29.77</v>
+        <v>40.39</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n">
-        <v>34.14</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="D7" t="n">
-        <v>54.77</v>
+        <v>34.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="D8" t="n">
-        <v>30.13</v>
+        <v>54.77</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1984 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>92</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>50</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>13.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5843</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9239</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7580</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6535</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5257</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5109</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4726</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3519</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>35.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>35.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>33.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2588,3406 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5440</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5219</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3908</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0821</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9338</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8467</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6952</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6710</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6374</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5670</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5655</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5618</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5187</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4821</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4708</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4318</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3929</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3529</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3251</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004093</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金元顺安桉盛债券A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>96.74</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159658</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华安中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159896</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深AI50ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159778</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华中证工业互联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159701</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012040</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015676</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3824,7 +9195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7490,7 +12861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11802,7 +17173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15578,7 +20949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20038,7 +25409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26088,7 +31459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29624,1958 +34995,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159819</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>47.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5843</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159998</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证计算机主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2196</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010147</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博道嘉兴一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9239</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8077</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001583</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信新常态沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7580</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512720</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰中证计算机主题ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7255</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>257020</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国联安精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6535</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515980</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华富中证人工智能产业ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5257</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161631</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5109</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515750</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国中证科技50策略ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5066</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008793</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博道嘉元混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4726</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008467</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博道嘉瑞混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>76.09</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4269</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008208</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博道嘉泰回报混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10.14</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>76.31</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3519</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>671010</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2972</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>159939</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发中证全指信息技术ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>99.23</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2324</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>515580</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证科技100ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2285</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001185</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信动态策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>35.95</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2228</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>512930</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>平安中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1912</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1808</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002029</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>安信动态策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>35.95</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1521</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>160626</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华中证信息技术指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1505</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007853</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华商计算机行业量化股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1436</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005587</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>安信比较优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1424</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002833</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华夏新锦绣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>42.76</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1412</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003397</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>银华体育文化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>79.79</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1279</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1223</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006818</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1213</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008477</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>安信价值驱动三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1204</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010202</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>天弘中证科技100指数增强A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1202</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010203</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>天弘中证科技100指数增强C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1089</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008347</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0931</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>159909</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>招商深证TMT50ETF</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>98.91</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0845</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>000417</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>国联安新精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>33.24</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0818</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002707</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0598</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008468</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>博道嘉瑞混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>76.09</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0569</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>007423</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0447</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>160137</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>南方中证互联网指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>009239</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>融通中证人工智能主题指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001628</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>招商体育文化休闲股票</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>008794</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>博道嘉元混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>007424</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>006819</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>001743</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>诺安优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>8.39</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>011060</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>002834</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>华夏新锦绣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>42.76</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>